--- a/Data/EC/NIT-9004003457.xlsx
+++ b/Data/EC/NIT-9004003457.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57592219-1608-4E13-B90B-866C85AFBE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A3B855C-94CD-4648-8F29-0EBBA87982F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D0DC6180-270B-4E0F-A846-D3AB02E465F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{498F8341-B216-4C75-AE19-B1F00018C839}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,142 +71,142 @@
     <t>VALERIA ANDREA BARRAZA D ANDREIS</t>
   </si>
   <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
     <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -620,7 +620,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7048E964-C57F-D913-7080-93B3C5094356}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18DFE4F-CC8F-8593-E1D5-F22B908F483D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553B44F9-9BB9-4EB8-A2F2-B671B092CAB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD90539-F717-405E-AF52-AB2EA7DD98C0}">
   <dimension ref="B2:J67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1149,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>34666</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -2184,7 +2184,7 @@
         <v>56</v>
       </c>
       <c r="F61" s="24">
-        <v>34666</v>
+        <v>40000</v>
       </c>
       <c r="G61" s="24">
         <v>1000000</v>

--- a/Data/EC/NIT-9004003457.xlsx
+++ b/Data/EC/NIT-9004003457.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A3B855C-94CD-4648-8F29-0EBBA87982F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55692D6A-B032-4BFA-850E-2B6BAC2BCF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{498F8341-B216-4C75-AE19-B1F00018C839}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2D0C0B90-F510-4683-896A-E4FD300E4FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,142 +71,142 @@
     <t>VALERIA ANDREA BARRAZA D ANDREIS</t>
   </si>
   <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
     <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -305,7 +305,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -318,9 +320,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -520,23 +520,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,10 +564,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,7 +620,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18DFE4F-CC8F-8593-E1D5-F22B908F483D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA16B7CF-62CD-4B97-68A5-E9B6B480DC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD90539-F717-405E-AF52-AB2EA7DD98C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434FD378-2F2D-45C9-AE17-C1AEDFC3DC7F}">
   <dimension ref="B2:J67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1149,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>34666</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -2184,7 +2184,7 @@
         <v>56</v>
       </c>
       <c r="F61" s="24">
-        <v>40000</v>
+        <v>34666</v>
       </c>
       <c r="G61" s="24">
         <v>1000000</v>
